--- a/Tickets Register_Oct_Nov_23 (5) 2 3 (1).xlsx
+++ b/Tickets Register_Oct_Nov_23 (5) 2 3 (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://firstrandgroup-my.sharepoint.com/personal/w5086795_wesbank_co_za1/Documents/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\w5086795\Videos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{C722C547-21E8-4A8A-B736-DEA837665E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69320A50-8751-41A9-98D9-5A8212DE096F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CF35C30-4E77-4250-9798-8835A3B05D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{D554BD9B-C4C2-4154-876B-C8773825D27D}"/>
   </bookViews>
